--- a/apps/admin/src/assets/sample.xlsx
+++ b/apps/admin/src/assets/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harkiratsingh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harkiratsingh/dev/projects/bounce123/apps/admin/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AD9FCB-85BE-3D4A-810E-D8576E1AA331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3809EC4E-8B81-4647-B310-94EAD24C073F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{D3E5B034-67D3-0F4A-AAD0-6564335FC00D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Order Id</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Instruction for the  driver sdsd</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Paid/Not Paid</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,7 +539,9 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -563,7 +571,9 @@
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
